--- a/zodiac-component-parent/zodiac-component-office/src/test/resources/test-reader.xlsx
+++ b/zodiac-component-parent/zodiac-component-office/src/test/resources/test-reader.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59B8BAD-EEEA-437F-B7CB-88E033CAA03A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{1E37F3FC-73C8-45C9-85E5-7167814130CC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -78,6 +78,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>熊逸</t>
+  </si>
+  <si>
+    <t>熊逸1234</t>
+  </si>
+  <si>
     <t>234234234324</t>
   </si>
   <si>
@@ -112,20 +118,13 @@
   </si>
   <si>
     <t>zhangsan9</t>
-  </si>
-  <si>
-    <t>zodiac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zodiac1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,22 +231,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -264,10 +262,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -302,7 +300,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -337,7 +335,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -431,21 +429,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -462,7 +460,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -514,26 +512,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="19.375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="17.375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -550,124 +548,124 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
+    <row customHeight="1" ht="32.25" r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="32.25" customHeight="true">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="32.25" customHeight="true">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="32.25" customHeight="true">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="32.25" customHeight="true">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="32.25" customHeight="true">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="32.25" customHeight="true">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="32.25" customHeight="true">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="32.25" customHeight="true">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" ht="32.25" customHeight="true">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -706,114 +704,123 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="6" t="s">
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="6" t="s">
+    <row r="18" ht="14.25" customHeight="true">
+      <c r="A18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="6" t="s">
+    <row r="19" ht="14.25" customHeight="true">
+      <c r="A19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D19" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="6" t="s">
+    <row r="20" ht="14.25" customHeight="true">
+      <c r="A20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D20" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="6" t="s">
+    <row r="21" ht="14.25" customHeight="true">
+      <c r="A21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D21" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="6" t="s">
+    <row r="22" ht="14.25" customHeight="true">
+      <c r="A22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D22" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="6" t="s">
+    <row r="23" ht="14.25" customHeight="true">
+      <c r="A23" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="0"/>
+      <c r="C23" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D23" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="6" t="s">
+    <row r="24" ht="14.25" customHeight="true">
+      <c r="A24" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D24" s="0" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="true">
+      <c r="A25" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="true">
+      <c r="A26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -828,76 +835,76 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>26</v>
+      <c r="B29" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>27</v>
+      <c r="B30" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>14</v>
+      <c r="B31" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A17:A26"/>
+  <mergeCells>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A17:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/zodiac-component-parent/zodiac-component-office/src/test/resources/test-reader.xlsx
+++ b/zodiac-component-parent/zodiac-component-office/src/test/resources/test-reader.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,21 +103,6 @@
   </si>
   <si>
     <t>zhangsan4</t>
-  </si>
-  <si>
-    <t>zhangsan5</t>
-  </si>
-  <si>
-    <t>zhangsan6</t>
-  </si>
-  <si>
-    <t>zhangsan7</t>
-  </si>
-  <si>
-    <t>zhangsan8</t>
-  </si>
-  <si>
-    <t>zhangsan9</t>
   </si>
 </sst>
 </file>
@@ -520,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
@@ -608,275 +593,131 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="32.25" customHeight="true">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" ht="32.25" customHeight="true">
-      <c r="A8" s="1" t="s">
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="true">
+      <c r="A13" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" ht="32.25" customHeight="true">
-      <c r="A9" s="1" t="s">
+      <c r="B13" s="0"/>
+      <c r="C13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="true">
+      <c r="A14" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" ht="32.25" customHeight="true">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" ht="32.25" customHeight="true">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="true">
-      <c r="A18" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="true">
-      <c r="A19" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0" t="s">
+      <c r="B14" s="0"/>
+      <c r="C14" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D14" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="true">
-      <c r="A20" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="0"/>
-      <c r="C20" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="true">
-      <c r="A21" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="0"/>
-      <c r="C21" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="true">
-      <c r="A22" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="true">
-      <c r="A23" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="0"/>
-      <c r="C23" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="true">
-      <c r="A24" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="true">
-      <c r="A25" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="true">
-      <c r="A26" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -885,23 +726,11 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/zodiac-component-parent/zodiac-component-office/src/test/resources/test-reader.xlsx
+++ b/zodiac-component-parent/zodiac-component-office/src/test/resources/test-reader.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,31 +78,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>熊逸</t>
-  </si>
-  <si>
-    <t>熊逸1234</t>
-  </si>
-  <si>
-    <t>234234234324</t>
-  </si>
-  <si>
-    <t>zhangsan</t>
-  </si>
-  <si>
-    <t>zhangsan0</t>
-  </si>
-  <si>
-    <t>zhangsan1</t>
-  </si>
-  <si>
-    <t>zhangsan2</t>
-  </si>
-  <si>
-    <t>zhangsan3</t>
-  </si>
-  <si>
-    <t>zhangsan4</t>
+    <t>张三0</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1990-01-01</t>
+  </si>
+  <si>
+    <t>张三1</t>
   </si>
 </sst>
 </file>
@@ -505,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
@@ -535,203 +523,118 @@
     </row>
     <row customHeight="1" ht="32.25" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" ht="32.25" customHeight="true">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" ht="32.25" customHeight="true">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" ht="32.25" customHeight="true">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" ht="32.25" customHeight="true">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="true">
-      <c r="A13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="true">
-      <c r="A14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>20</v>
-      </c>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
